--- a/CW1/Results400Home.xlsx
+++ b/CW1/Results400Home.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40168766\Documents\GitHub\ConcurrentAndParallelSystems\CW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="10">
   <si>
     <t>Image Dimensions (px)</t>
   </si>
@@ -42,11 +47,14 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Fixed Parallel For</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -594,6 +602,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -641,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q148"/>
+  <dimension ref="B1:W228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
+      <selection activeCell="U113" sqref="U113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +919,15 @@
     <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:23" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
@@ -921,8 +937,11 @@
       <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +978,20 @@
       <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1028,20 @@
       <c r="Q3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>1685</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1035,8 +1078,20 @@
       <c r="Q4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>1690</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1128,20 @@
       <c r="Q5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>1681</v>
+      </c>
+      <c r="W5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1178,20 @@
       <c r="Q6" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>1682</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1228,20 @@
       <c r="Q7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>1686</v>
+      </c>
+      <c r="W7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1278,20 @@
       <c r="Q8" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>1765</v>
+      </c>
+      <c r="W8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1225,8 +1328,20 @@
       <c r="Q9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>1642</v>
+      </c>
+      <c r="W9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1378,20 @@
       <c r="Q10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>1653</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1301,8 +1428,20 @@
       <c r="Q11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>1653</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1339,8 +1478,20 @@
       <c r="Q12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>4</v>
+      </c>
+      <c r="V12">
+        <v>1663</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1362,8 +1513,23 @@
         <f>AVERAGE(P3:P12)</f>
         <v>1567.8</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T13"/>
+      <c r="U13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="1">
+        <f>AVERAGE(V3:V12)</f>
+        <v>1680</v>
+      </c>
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,8 +1566,20 @@
       <c r="Q15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>1542</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1438,8 +1616,20 @@
       <c r="Q16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>1871</v>
+      </c>
+      <c r="W16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1476,8 +1666,20 @@
       <c r="Q17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>1722</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1514,8 +1716,20 @@
       <c r="Q18" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>1566</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1552,8 +1766,20 @@
       <c r="Q19" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>1571</v>
+      </c>
+      <c r="W19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1590,8 +1816,20 @@
       <c r="Q20" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20">
+        <v>1708</v>
+      </c>
+      <c r="W20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1628,8 +1866,20 @@
       <c r="Q21" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>1682</v>
+      </c>
+      <c r="W21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1666,8 +1916,20 @@
       <c r="Q22" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>1777</v>
+      </c>
+      <c r="W22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1704,8 +1966,20 @@
       <c r="Q23" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>1626</v>
+      </c>
+      <c r="W23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1742,8 +2016,20 @@
       <c r="Q24" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>1630</v>
+      </c>
+      <c r="W24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,8 +2051,23 @@
         <f>AVERAGE(P15:P24)</f>
         <v>1570.7</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T25"/>
+      <c r="U25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="1">
+        <f>AVERAGE(V15:V24)</f>
+        <v>1669.5</v>
+      </c>
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1803,8 +2104,20 @@
       <c r="Q27" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27">
+        <v>4</v>
+      </c>
+      <c r="V27">
+        <v>1942</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1841,8 +2154,20 @@
       <c r="Q28" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>1975</v>
+      </c>
+      <c r="W28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1879,8 +2204,20 @@
       <c r="Q29" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>2003</v>
+      </c>
+      <c r="W29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1917,8 +2254,20 @@
       <c r="Q30" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>2060</v>
+      </c>
+      <c r="W30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1955,8 +2304,20 @@
       <c r="Q31" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>2089</v>
+      </c>
+      <c r="W31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1993,8 +2354,20 @@
       <c r="Q32" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>2088</v>
+      </c>
+      <c r="W32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2031,8 +2404,20 @@
       <c r="Q33" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>4</v>
+      </c>
+      <c r="V33">
+        <v>2124</v>
+      </c>
+      <c r="W33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,8 +2454,20 @@
       <c r="Q34" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>2168</v>
+      </c>
+      <c r="W34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2107,8 +2504,20 @@
       <c r="Q35" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>2165</v>
+      </c>
+      <c r="W35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2145,8 +2554,20 @@
       <c r="Q36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>2196</v>
+      </c>
+      <c r="W36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
@@ -2168,8 +2589,23 @@
         <f>AVERAGE(P27:P36)</f>
         <v>2013.1</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="T37"/>
+      <c r="U37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" s="1">
+        <f>AVERAGE(V27:V36)</f>
+        <v>2081</v>
+      </c>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="2:23" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2179,8 +2615,14 @@
       <c r="O39" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T39"/>
+      <c r="U39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39"/>
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
@@ -2217,8 +2659,20 @@
       <c r="Q40" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>16</v>
+      </c>
+      <c r="V40">
+        <v>8047</v>
+      </c>
+      <c r="W40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2709,20 @@
       <c r="Q41" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>16</v>
+      </c>
+      <c r="V41">
+        <v>8288</v>
+      </c>
+      <c r="W41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2293,8 +2759,20 @@
       <c r="Q42" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>16</v>
+      </c>
+      <c r="V42">
+        <v>8422</v>
+      </c>
+      <c r="W42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2331,8 +2809,20 @@
       <c r="Q43" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>16</v>
+      </c>
+      <c r="V43">
+        <v>8589</v>
+      </c>
+      <c r="W43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2369,8 +2859,20 @@
       <c r="Q44" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>16</v>
+      </c>
+      <c r="V44">
+        <v>8669</v>
+      </c>
+      <c r="W44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2407,8 +2909,20 @@
       <c r="Q45" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45">
+        <v>16</v>
+      </c>
+      <c r="V45">
+        <v>8740</v>
+      </c>
+      <c r="W45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2445,8 +2959,20 @@
       <c r="Q46" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>8770</v>
+      </c>
+      <c r="W46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2483,8 +3009,20 @@
       <c r="Q47" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47">
+        <v>16</v>
+      </c>
+      <c r="V47">
+        <v>8845</v>
+      </c>
+      <c r="W47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
@@ -2521,8 +3059,20 @@
       <c r="Q48" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>16</v>
+      </c>
+      <c r="V48">
+        <v>8821</v>
+      </c>
+      <c r="W48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2559,8 +3109,20 @@
       <c r="Q49" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49">
+        <v>16</v>
+      </c>
+      <c r="V49">
+        <v>8886</v>
+      </c>
+      <c r="W49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2582,8 +3144,23 @@
         <f>AVERAGE(P40:P49)</f>
         <v>8175.8</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T50"/>
+      <c r="U50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V50" s="1">
+        <f>AVERAGE(V40:V49)</f>
+        <v>8607.7000000000007</v>
+      </c>
+      <c r="W50"/>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2620,8 +3197,20 @@
       <c r="Q52" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T52" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>16</v>
+      </c>
+      <c r="V52">
+        <v>8395</v>
+      </c>
+      <c r="W52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2658,8 +3247,20 @@
       <c r="Q53" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T53" t="s">
+        <v>4</v>
+      </c>
+      <c r="U53">
+        <v>16</v>
+      </c>
+      <c r="V53">
+        <v>8351</v>
+      </c>
+      <c r="W53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2696,8 +3297,20 @@
       <c r="Q54" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T54" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54">
+        <v>16</v>
+      </c>
+      <c r="V54">
+        <v>8324</v>
+      </c>
+      <c r="W54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
@@ -2734,8 +3347,20 @@
       <c r="Q55" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>4</v>
+      </c>
+      <c r="U55">
+        <v>16</v>
+      </c>
+      <c r="V55">
+        <v>8398</v>
+      </c>
+      <c r="W55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
@@ -2772,8 +3397,20 @@
       <c r="Q56" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T56" t="s">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>16</v>
+      </c>
+      <c r="V56">
+        <v>8353</v>
+      </c>
+      <c r="W56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
@@ -2810,8 +3447,20 @@
       <c r="Q57" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57">
+        <v>16</v>
+      </c>
+      <c r="V57">
+        <v>8339</v>
+      </c>
+      <c r="W57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2848,8 +3497,20 @@
       <c r="Q58" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <v>16</v>
+      </c>
+      <c r="V58">
+        <v>8382</v>
+      </c>
+      <c r="W58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
@@ -2886,8 +3547,20 @@
       <c r="Q59" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59">
+        <v>16</v>
+      </c>
+      <c r="V59">
+        <v>8310</v>
+      </c>
+      <c r="W59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
@@ -2924,8 +3597,20 @@
       <c r="Q60" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <v>16</v>
+      </c>
+      <c r="V60">
+        <v>8307</v>
+      </c>
+      <c r="W60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +3647,20 @@
       <c r="Q61" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>16</v>
+      </c>
+      <c r="V61">
+        <v>8347</v>
+      </c>
+      <c r="W61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2985,8 +3682,23 @@
         <f>AVERAGE(P52:P61)</f>
         <v>7754.2</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T62"/>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="1">
+        <f>AVERAGE(V52:V61)</f>
+        <v>8350.6</v>
+      </c>
+      <c r="W62"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
@@ -3023,8 +3735,20 @@
       <c r="Q64" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T64" t="s">
+        <v>4</v>
+      </c>
+      <c r="U64">
+        <v>16</v>
+      </c>
+      <c r="V64">
+        <v>9781</v>
+      </c>
+      <c r="W64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
@@ -3061,8 +3785,20 @@
       <c r="Q65" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T65" t="s">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>16</v>
+      </c>
+      <c r="V65">
+        <v>9811</v>
+      </c>
+      <c r="W65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3099,8 +3835,20 @@
       <c r="Q66" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T66" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66">
+        <v>16</v>
+      </c>
+      <c r="V66">
+        <v>9763</v>
+      </c>
+      <c r="W66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3137,8 +3885,20 @@
       <c r="Q67" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T67" t="s">
+        <v>4</v>
+      </c>
+      <c r="U67">
+        <v>16</v>
+      </c>
+      <c r="V67">
+        <v>9778</v>
+      </c>
+      <c r="W67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
@@ -3175,8 +3935,20 @@
       <c r="Q68" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T68" t="s">
+        <v>4</v>
+      </c>
+      <c r="U68">
+        <v>16</v>
+      </c>
+      <c r="V68">
+        <v>9820</v>
+      </c>
+      <c r="W68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3213,8 +3985,20 @@
       <c r="Q69" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T69" t="s">
+        <v>4</v>
+      </c>
+      <c r="U69">
+        <v>16</v>
+      </c>
+      <c r="V69">
+        <v>9736</v>
+      </c>
+      <c r="W69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
@@ -3251,8 +4035,20 @@
       <c r="Q70" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>16</v>
+      </c>
+      <c r="V70">
+        <v>9799</v>
+      </c>
+      <c r="W70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
@@ -3289,8 +4085,20 @@
       <c r="Q71" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T71" t="s">
+        <v>4</v>
+      </c>
+      <c r="U71">
+        <v>16</v>
+      </c>
+      <c r="V71">
+        <v>9831</v>
+      </c>
+      <c r="W71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>4</v>
       </c>
@@ -3327,8 +4135,20 @@
       <c r="Q72" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T72" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72">
+        <v>16</v>
+      </c>
+      <c r="V72">
+        <v>9755</v>
+      </c>
+      <c r="W72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3365,8 +4185,20 @@
       <c r="Q73" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>4</v>
+      </c>
+      <c r="U73">
+        <v>16</v>
+      </c>
+      <c r="V73">
+        <v>9795</v>
+      </c>
+      <c r="W73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
         <v>8</v>
       </c>
@@ -3388,8 +4220,23 @@
         <f>AVERAGE(P64:P73)</f>
         <v>9010.4</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="T74"/>
+      <c r="U74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V74" s="1">
+        <f>AVERAGE(V64:V73)</f>
+        <v>9786.9</v>
+      </c>
+      <c r="W74"/>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+    </row>
+    <row r="76" spans="2:23" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
@@ -3399,8 +4246,14 @@
       <c r="O76" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T76"/>
+      <c r="U76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V76"/>
+      <c r="W76"/>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>4</v>
       </c>
@@ -3437,8 +4290,20 @@
       <c r="Q77" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T77" t="s">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>64</v>
+      </c>
+      <c r="V77">
+        <v>35296</v>
+      </c>
+      <c r="W77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
@@ -3475,8 +4340,20 @@
       <c r="Q78" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T78" t="s">
+        <v>4</v>
+      </c>
+      <c r="U78">
+        <v>64</v>
+      </c>
+      <c r="V78">
+        <v>35250</v>
+      </c>
+      <c r="W78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
@@ -3513,8 +4390,20 @@
       <c r="Q79" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T79" t="s">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>64</v>
+      </c>
+      <c r="V79">
+        <v>35073</v>
+      </c>
+      <c r="W79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
@@ -3551,8 +4440,20 @@
       <c r="Q80" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T80" t="s">
+        <v>4</v>
+      </c>
+      <c r="U80">
+        <v>64</v>
+      </c>
+      <c r="V80">
+        <v>35131</v>
+      </c>
+      <c r="W80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
@@ -3589,8 +4490,20 @@
       <c r="Q81" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T81" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81">
+        <v>64</v>
+      </c>
+      <c r="V81">
+        <v>34900</v>
+      </c>
+      <c r="W81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3627,8 +4540,20 @@
       <c r="Q82" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T82" t="s">
+        <v>4</v>
+      </c>
+      <c r="U82">
+        <v>64</v>
+      </c>
+      <c r="V82">
+        <v>34752</v>
+      </c>
+      <c r="W82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
@@ -3665,8 +4590,20 @@
       <c r="Q83" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T83" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83">
+        <v>64</v>
+      </c>
+      <c r="V83">
+        <v>34843</v>
+      </c>
+      <c r="W83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
@@ -3703,8 +4640,20 @@
       <c r="Q84" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T84" t="s">
+        <v>4</v>
+      </c>
+      <c r="U84">
+        <v>64</v>
+      </c>
+      <c r="V84">
+        <v>34700</v>
+      </c>
+      <c r="W84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
@@ -3741,8 +4690,20 @@
       <c r="Q85" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T85" t="s">
+        <v>4</v>
+      </c>
+      <c r="U85">
+        <v>64</v>
+      </c>
+      <c r="V85">
+        <v>34508</v>
+      </c>
+      <c r="W85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
@@ -3779,8 +4740,20 @@
       <c r="Q86" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T86" t="s">
+        <v>4</v>
+      </c>
+      <c r="U86">
+        <v>64</v>
+      </c>
+      <c r="V86">
+        <v>34744</v>
+      </c>
+      <c r="W86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
@@ -3802,8 +4775,23 @@
         <f>AVERAGE(P77:P86)</f>
         <v>32501.5</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T87"/>
+      <c r="U87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" s="1">
+        <f>AVERAGE(V77:V86)</f>
+        <v>34919.699999999997</v>
+      </c>
+      <c r="W87"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
@@ -3840,8 +4828,20 @@
       <c r="Q89" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T89" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <v>64</v>
+      </c>
+      <c r="V89">
+        <v>32499</v>
+      </c>
+      <c r="W89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3878,8 +4878,20 @@
       <c r="Q90" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T90" t="s">
+        <v>4</v>
+      </c>
+      <c r="U90">
+        <v>64</v>
+      </c>
+      <c r="V90">
+        <v>32397</v>
+      </c>
+      <c r="W90">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
@@ -3916,8 +4928,20 @@
       <c r="Q91" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T91" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <v>64</v>
+      </c>
+      <c r="V91">
+        <v>32317</v>
+      </c>
+      <c r="W91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
@@ -3954,8 +4978,20 @@
       <c r="Q92" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T92" t="s">
+        <v>4</v>
+      </c>
+      <c r="U92">
+        <v>64</v>
+      </c>
+      <c r="V92">
+        <v>32353</v>
+      </c>
+      <c r="W92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
@@ -3992,8 +5028,20 @@
       <c r="Q93" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T93" t="s">
+        <v>4</v>
+      </c>
+      <c r="U93">
+        <v>64</v>
+      </c>
+      <c r="V93">
+        <v>32189</v>
+      </c>
+      <c r="W93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
@@ -4030,8 +5078,20 @@
       <c r="Q94" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T94" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94">
+        <v>64</v>
+      </c>
+      <c r="V94">
+        <v>32260</v>
+      </c>
+      <c r="W94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
@@ -4068,8 +5128,20 @@
       <c r="Q95" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T95" t="s">
+        <v>4</v>
+      </c>
+      <c r="U95">
+        <v>64</v>
+      </c>
+      <c r="V95">
+        <v>32143</v>
+      </c>
+      <c r="W95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -4106,8 +5178,20 @@
       <c r="Q96" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T96" t="s">
+        <v>4</v>
+      </c>
+      <c r="U96">
+        <v>64</v>
+      </c>
+      <c r="V96">
+        <v>32200</v>
+      </c>
+      <c r="W96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>4</v>
       </c>
@@ -4144,8 +5228,20 @@
       <c r="Q97" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T97" t="s">
+        <v>4</v>
+      </c>
+      <c r="U97">
+        <v>64</v>
+      </c>
+      <c r="V97">
+        <v>32106</v>
+      </c>
+      <c r="W97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
@@ -4182,8 +5278,20 @@
       <c r="Q98" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T98" t="s">
+        <v>4</v>
+      </c>
+      <c r="U98">
+        <v>64</v>
+      </c>
+      <c r="V98">
+        <v>32333</v>
+      </c>
+      <c r="W98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C99" s="3" t="s">
         <v>8</v>
       </c>
@@ -4205,8 +5313,23 @@
         <f>AVERAGE(P89:P98)</f>
         <v>29593.5</v>
       </c>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T99"/>
+      <c r="U99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V99" s="1">
+        <f>AVERAGE(V89:V98)</f>
+        <v>32279.7</v>
+      </c>
+      <c r="W99"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
@@ -4243,8 +5366,20 @@
       <c r="Q101" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T101" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101">
+        <v>64</v>
+      </c>
+      <c r="V101">
+        <v>38107</v>
+      </c>
+      <c r="W101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
@@ -4281,8 +5416,20 @@
       <c r="Q102" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T102" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>64</v>
+      </c>
+      <c r="V102">
+        <v>37995</v>
+      </c>
+      <c r="W102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
@@ -4319,8 +5466,20 @@
       <c r="Q103" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T103" t="s">
+        <v>4</v>
+      </c>
+      <c r="U103">
+        <v>64</v>
+      </c>
+      <c r="V103">
+        <v>37951</v>
+      </c>
+      <c r="W103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>4</v>
       </c>
@@ -4357,8 +5516,20 @@
       <c r="Q104" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T104" t="s">
+        <v>4</v>
+      </c>
+      <c r="U104">
+        <v>64</v>
+      </c>
+      <c r="V104">
+        <v>37889</v>
+      </c>
+      <c r="W104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
@@ -4395,8 +5566,20 @@
       <c r="Q105" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T105" t="s">
+        <v>4</v>
+      </c>
+      <c r="U105">
+        <v>64</v>
+      </c>
+      <c r="V105">
+        <v>37951</v>
+      </c>
+      <c r="W105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
@@ -4433,8 +5616,20 @@
       <c r="Q106" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T106" t="s">
+        <v>4</v>
+      </c>
+      <c r="U106">
+        <v>64</v>
+      </c>
+      <c r="V106">
+        <v>37624</v>
+      </c>
+      <c r="W106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
@@ -4471,8 +5666,20 @@
       <c r="Q107" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T107" t="s">
+        <v>4</v>
+      </c>
+      <c r="U107">
+        <v>64</v>
+      </c>
+      <c r="V107">
+        <v>37755</v>
+      </c>
+      <c r="W107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>4</v>
       </c>
@@ -4509,8 +5716,20 @@
       <c r="Q108" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T108" t="s">
+        <v>4</v>
+      </c>
+      <c r="U108">
+        <v>64</v>
+      </c>
+      <c r="V108">
+        <v>37620</v>
+      </c>
+      <c r="W108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>4</v>
       </c>
@@ -4547,8 +5766,20 @@
       <c r="Q109" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T109" t="s">
+        <v>4</v>
+      </c>
+      <c r="U109">
+        <v>64</v>
+      </c>
+      <c r="V109">
+        <v>37639</v>
+      </c>
+      <c r="W109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>4</v>
       </c>
@@ -4585,8 +5816,20 @@
       <c r="Q110" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T110" t="s">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>64</v>
+      </c>
+      <c r="V110">
+        <v>37787</v>
+      </c>
+      <c r="W110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C111" s="3" t="s">
         <v>8</v>
       </c>
@@ -4608,8 +5851,23 @@
         <f>AVERAGE(P101:P110)</f>
         <v>35544.199999999997</v>
       </c>
-    </row>
-    <row r="113" spans="2:17" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="T111"/>
+      <c r="U111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V111" s="1">
+        <f>AVERAGE(V101:V110)</f>
+        <v>37831.800000000003</v>
+      </c>
+      <c r="W111"/>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+    </row>
+    <row r="113" spans="2:23" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C113" s="2" t="s">
         <v>5</v>
       </c>
@@ -4619,8 +5877,14 @@
       <c r="O113" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T113"/>
+      <c r="U113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V113"/>
+      <c r="W113"/>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
@@ -4657,8 +5921,20 @@
       <c r="Q114" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T114" t="s">
+        <v>4</v>
+      </c>
+      <c r="U114">
+        <v>256</v>
+      </c>
+      <c r="V114">
+        <v>137361</v>
+      </c>
+      <c r="W114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>4</v>
       </c>
@@ -4695,8 +5971,20 @@
       <c r="Q115" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T115" t="s">
+        <v>4</v>
+      </c>
+      <c r="U115">
+        <v>256</v>
+      </c>
+      <c r="V115">
+        <v>136461</v>
+      </c>
+      <c r="W115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>4</v>
       </c>
@@ -4733,8 +6021,20 @@
       <c r="Q116" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T116" t="s">
+        <v>4</v>
+      </c>
+      <c r="U116">
+        <v>256</v>
+      </c>
+      <c r="V116">
+        <v>135941</v>
+      </c>
+      <c r="W116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>4</v>
       </c>
@@ -4771,8 +6071,20 @@
       <c r="Q117" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T117" t="s">
+        <v>4</v>
+      </c>
+      <c r="U117">
+        <v>256</v>
+      </c>
+      <c r="V117">
+        <v>136160</v>
+      </c>
+      <c r="W117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
@@ -4809,8 +6121,20 @@
       <c r="Q118" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T118" t="s">
+        <v>4</v>
+      </c>
+      <c r="U118">
+        <v>256</v>
+      </c>
+      <c r="V118">
+        <v>135451</v>
+      </c>
+      <c r="W118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
@@ -4847,8 +6171,20 @@
       <c r="Q119" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T119" t="s">
+        <v>4</v>
+      </c>
+      <c r="U119">
+        <v>256</v>
+      </c>
+      <c r="V119">
+        <v>135852</v>
+      </c>
+      <c r="W119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>4</v>
       </c>
@@ -4885,8 +6221,20 @@
       <c r="Q120" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T120" t="s">
+        <v>4</v>
+      </c>
+      <c r="U120">
+        <v>256</v>
+      </c>
+      <c r="V120">
+        <v>135661</v>
+      </c>
+      <c r="W120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>4</v>
       </c>
@@ -4923,8 +6271,20 @@
       <c r="Q121" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T121" t="s">
+        <v>4</v>
+      </c>
+      <c r="U121">
+        <v>256</v>
+      </c>
+      <c r="V121">
+        <v>135752</v>
+      </c>
+      <c r="W121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>4</v>
       </c>
@@ -4961,8 +6321,20 @@
       <c r="Q122" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T122" t="s">
+        <v>4</v>
+      </c>
+      <c r="U122">
+        <v>256</v>
+      </c>
+      <c r="V122">
+        <v>135282</v>
+      </c>
+      <c r="W122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>4</v>
       </c>
@@ -4999,8 +6371,20 @@
       <c r="Q123" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T123" t="s">
+        <v>4</v>
+      </c>
+      <c r="U123">
+        <v>256</v>
+      </c>
+      <c r="V123">
+        <v>135209</v>
+      </c>
+      <c r="W123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C124" s="3" t="s">
         <v>8</v>
       </c>
@@ -5022,8 +6406,23 @@
         <f>AVERAGE(P114:P123)</f>
         <v>125720.2</v>
       </c>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T124"/>
+      <c r="U124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V124" s="1">
+        <f>AVERAGE(V114:V123)</f>
+        <v>135913</v>
+      </c>
+      <c r="W124"/>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
@@ -5060,8 +6459,20 @@
       <c r="Q126" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T126" t="s">
+        <v>4</v>
+      </c>
+      <c r="U126">
+        <v>256</v>
+      </c>
+      <c r="V126">
+        <v>126792</v>
+      </c>
+      <c r="W126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
@@ -5098,8 +6509,20 @@
       <c r="Q127" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T127" t="s">
+        <v>4</v>
+      </c>
+      <c r="U127">
+        <v>256</v>
+      </c>
+      <c r="V127">
+        <v>126389</v>
+      </c>
+      <c r="W127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>4</v>
       </c>
@@ -5136,8 +6559,20 @@
       <c r="Q128" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T128" t="s">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <v>256</v>
+      </c>
+      <c r="V128">
+        <v>126229</v>
+      </c>
+      <c r="W128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
@@ -5174,8 +6609,20 @@
       <c r="Q129" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T129" t="s">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>256</v>
+      </c>
+      <c r="V129">
+        <v>126010</v>
+      </c>
+      <c r="W129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>4</v>
       </c>
@@ -5212,8 +6659,20 @@
       <c r="Q130" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T130" t="s">
+        <v>4</v>
+      </c>
+      <c r="U130">
+        <v>256</v>
+      </c>
+      <c r="V130">
+        <v>126570</v>
+      </c>
+      <c r="W130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>4</v>
       </c>
@@ -5250,8 +6709,20 @@
       <c r="Q131" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T131" t="s">
+        <v>4</v>
+      </c>
+      <c r="U131">
+        <v>256</v>
+      </c>
+      <c r="V131">
+        <v>126645</v>
+      </c>
+      <c r="W131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>4</v>
       </c>
@@ -5288,8 +6759,20 @@
       <c r="Q132" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T132" t="s">
+        <v>4</v>
+      </c>
+      <c r="U132">
+        <v>256</v>
+      </c>
+      <c r="V132">
+        <v>127244</v>
+      </c>
+      <c r="W132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>4</v>
       </c>
@@ -5326,8 +6809,20 @@
       <c r="Q133" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T133" t="s">
+        <v>4</v>
+      </c>
+      <c r="U133">
+        <v>256</v>
+      </c>
+      <c r="V133">
+        <v>127143</v>
+      </c>
+      <c r="W133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>4</v>
       </c>
@@ -5364,8 +6859,20 @@
       <c r="Q134" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T134" t="s">
+        <v>4</v>
+      </c>
+      <c r="U134">
+        <v>256</v>
+      </c>
+      <c r="V134">
+        <v>126688</v>
+      </c>
+      <c r="W134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>4</v>
       </c>
@@ -5402,8 +6909,20 @@
       <c r="Q135" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T135" t="s">
+        <v>4</v>
+      </c>
+      <c r="U135">
+        <v>256</v>
+      </c>
+      <c r="V135">
+        <v>126995</v>
+      </c>
+      <c r="W135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C136" s="3" t="s">
         <v>8</v>
       </c>
@@ -5425,8 +6944,23 @@
         <f>AVERAGE(P126:P135)</f>
         <v>118001.5</v>
       </c>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T136"/>
+      <c r="U136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V136" s="1">
+        <f>AVERAGE(V126:V135)</f>
+        <v>126670.5</v>
+      </c>
+      <c r="W136"/>
+    </row>
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+    </row>
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>4</v>
       </c>
@@ -5463,8 +6997,20 @@
       <c r="Q138" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T138" t="s">
+        <v>4</v>
+      </c>
+      <c r="U138">
+        <v>256</v>
+      </c>
+      <c r="V138">
+        <v>152518</v>
+      </c>
+      <c r="W138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>4</v>
       </c>
@@ -5501,8 +7047,20 @@
       <c r="Q139" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T139" t="s">
+        <v>4</v>
+      </c>
+      <c r="U139">
+        <v>256</v>
+      </c>
+      <c r="V139">
+        <v>152643</v>
+      </c>
+      <c r="W139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
@@ -5539,8 +7097,20 @@
       <c r="Q140" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T140" t="s">
+        <v>4</v>
+      </c>
+      <c r="U140">
+        <v>256</v>
+      </c>
+      <c r="V140">
+        <v>147949</v>
+      </c>
+      <c r="W140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>4</v>
       </c>
@@ -5577,8 +7147,20 @@
       <c r="Q141" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T141" t="s">
+        <v>4</v>
+      </c>
+      <c r="U141">
+        <v>256</v>
+      </c>
+      <c r="V141">
+        <v>150193</v>
+      </c>
+      <c r="W141">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>4</v>
       </c>
@@ -5615,8 +7197,20 @@
       <c r="Q142" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T142" t="s">
+        <v>4</v>
+      </c>
+      <c r="U142">
+        <v>256</v>
+      </c>
+      <c r="V142">
+        <v>150482</v>
+      </c>
+      <c r="W142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>4</v>
       </c>
@@ -5653,8 +7247,20 @@
       <c r="Q143" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T143" t="s">
+        <v>4</v>
+      </c>
+      <c r="U143">
+        <v>256</v>
+      </c>
+      <c r="V143">
+        <v>150549</v>
+      </c>
+      <c r="W143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>4</v>
       </c>
@@ -5691,8 +7297,20 @@
       <c r="Q144" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T144" t="s">
+        <v>4</v>
+      </c>
+      <c r="U144">
+        <v>256</v>
+      </c>
+      <c r="V144">
+        <v>150626</v>
+      </c>
+      <c r="W144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>4</v>
       </c>
@@ -5729,8 +7347,20 @@
       <c r="Q145" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T145" t="s">
+        <v>4</v>
+      </c>
+      <c r="U145">
+        <v>256</v>
+      </c>
+      <c r="V145">
+        <v>151189</v>
+      </c>
+      <c r="W145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>4</v>
       </c>
@@ -5767,8 +7397,20 @@
       <c r="Q146" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T146" t="s">
+        <v>4</v>
+      </c>
+      <c r="U146">
+        <v>256</v>
+      </c>
+      <c r="V146">
+        <v>150918</v>
+      </c>
+      <c r="W146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>4</v>
       </c>
@@ -5805,8 +7447,20 @@
       <c r="Q147" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="T147" t="s">
+        <v>4</v>
+      </c>
+      <c r="U147">
+        <v>256</v>
+      </c>
+      <c r="V147">
+        <v>151585</v>
+      </c>
+      <c r="W147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
@@ -5828,6 +7482,495 @@
         <f>AVERAGE(P138:P147)</f>
         <v>139375.4</v>
       </c>
+      <c r="T148"/>
+      <c r="U148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V148" s="1">
+        <f>AVERAGE(V138:V147)</f>
+        <v>150865.20000000001</v>
+      </c>
+      <c r="W148"/>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+    </row>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+    </row>
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+    </row>
+    <row r="156" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+    </row>
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+    </row>
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+    </row>
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+    </row>
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+    </row>
+    <row r="161" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+    </row>
+    <row r="162" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+    </row>
+    <row r="163" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T163"/>
+      <c r="U163"/>
+      <c r="V163"/>
+      <c r="W163"/>
+    </row>
+    <row r="164" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+      <c r="W164"/>
+    </row>
+    <row r="165" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+    </row>
+    <row r="166" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+    </row>
+    <row r="167" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T167"/>
+      <c r="U167"/>
+      <c r="V167"/>
+      <c r="W167"/>
+    </row>
+    <row r="168" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T168"/>
+      <c r="U168"/>
+      <c r="V168"/>
+      <c r="W168"/>
+    </row>
+    <row r="169" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+    </row>
+    <row r="170" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+    </row>
+    <row r="171" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+    </row>
+    <row r="172" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+    </row>
+    <row r="173" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T173"/>
+      <c r="U173"/>
+      <c r="V173"/>
+      <c r="W173"/>
+    </row>
+    <row r="174" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T174"/>
+      <c r="U174"/>
+      <c r="V174"/>
+      <c r="W174"/>
+    </row>
+    <row r="175" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T175"/>
+      <c r="U175"/>
+      <c r="V175"/>
+      <c r="W175"/>
+    </row>
+    <row r="176" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T176"/>
+      <c r="U176"/>
+      <c r="V176"/>
+      <c r="W176"/>
+    </row>
+    <row r="177" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T177"/>
+      <c r="U177"/>
+      <c r="V177"/>
+      <c r="W177"/>
+    </row>
+    <row r="178" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T178"/>
+      <c r="U178"/>
+      <c r="V178"/>
+      <c r="W178"/>
+    </row>
+    <row r="179" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+      <c r="W179"/>
+    </row>
+    <row r="180" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T180"/>
+      <c r="U180"/>
+      <c r="V180"/>
+      <c r="W180"/>
+    </row>
+    <row r="181" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T181"/>
+      <c r="U181"/>
+      <c r="V181"/>
+      <c r="W181"/>
+    </row>
+    <row r="182" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T182"/>
+      <c r="U182"/>
+      <c r="V182"/>
+      <c r="W182"/>
+    </row>
+    <row r="183" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T183"/>
+      <c r="U183"/>
+      <c r="V183"/>
+      <c r="W183"/>
+    </row>
+    <row r="184" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T184"/>
+      <c r="U184"/>
+      <c r="V184"/>
+      <c r="W184"/>
+    </row>
+    <row r="185" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+    </row>
+    <row r="186" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+    </row>
+    <row r="187" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T187"/>
+      <c r="U187"/>
+      <c r="V187"/>
+      <c r="W187"/>
+    </row>
+    <row r="188" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T188"/>
+      <c r="U188"/>
+      <c r="V188"/>
+      <c r="W188"/>
+    </row>
+    <row r="189" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T189"/>
+      <c r="U189"/>
+      <c r="V189"/>
+      <c r="W189"/>
+    </row>
+    <row r="190" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+    </row>
+    <row r="191" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T191"/>
+      <c r="U191"/>
+      <c r="V191"/>
+      <c r="W191"/>
+    </row>
+    <row r="192" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T192"/>
+      <c r="U192"/>
+      <c r="V192"/>
+      <c r="W192"/>
+    </row>
+    <row r="193" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T193"/>
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+    </row>
+    <row r="194" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T194"/>
+      <c r="U194"/>
+      <c r="V194"/>
+      <c r="W194"/>
+    </row>
+    <row r="195" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T195"/>
+      <c r="U195"/>
+      <c r="V195"/>
+      <c r="W195"/>
+    </row>
+    <row r="196" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T196"/>
+      <c r="U196"/>
+      <c r="V196"/>
+      <c r="W196"/>
+    </row>
+    <row r="197" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T197"/>
+      <c r="U197"/>
+      <c r="V197"/>
+      <c r="W197"/>
+    </row>
+    <row r="198" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T198"/>
+      <c r="U198"/>
+      <c r="V198"/>
+      <c r="W198"/>
+    </row>
+    <row r="199" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+    </row>
+    <row r="200" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T200"/>
+      <c r="U200"/>
+      <c r="V200"/>
+      <c r="W200"/>
+    </row>
+    <row r="201" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T201"/>
+      <c r="U201"/>
+      <c r="V201"/>
+      <c r="W201"/>
+    </row>
+    <row r="202" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T202"/>
+      <c r="U202"/>
+      <c r="V202"/>
+      <c r="W202"/>
+    </row>
+    <row r="203" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T203"/>
+      <c r="U203"/>
+      <c r="V203"/>
+      <c r="W203"/>
+    </row>
+    <row r="204" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T204"/>
+      <c r="U204"/>
+      <c r="V204"/>
+      <c r="W204"/>
+    </row>
+    <row r="205" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T205"/>
+      <c r="U205"/>
+      <c r="V205"/>
+      <c r="W205"/>
+    </row>
+    <row r="206" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T206"/>
+      <c r="U206"/>
+      <c r="V206"/>
+      <c r="W206"/>
+    </row>
+    <row r="207" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T207"/>
+      <c r="U207"/>
+      <c r="V207"/>
+      <c r="W207"/>
+    </row>
+    <row r="208" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+    </row>
+    <row r="209" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+    </row>
+    <row r="210" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T210"/>
+      <c r="U210"/>
+      <c r="V210"/>
+      <c r="W210"/>
+    </row>
+    <row r="211" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211"/>
+    </row>
+    <row r="212" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+    </row>
+    <row r="213" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T213"/>
+      <c r="U213"/>
+      <c r="V213"/>
+      <c r="W213"/>
+    </row>
+    <row r="214" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+    </row>
+    <row r="215" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T215"/>
+      <c r="U215"/>
+      <c r="V215"/>
+      <c r="W215"/>
+    </row>
+    <row r="216" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+    </row>
+    <row r="217" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T217"/>
+      <c r="U217"/>
+      <c r="V217"/>
+      <c r="W217"/>
+    </row>
+    <row r="218" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T218"/>
+      <c r="U218"/>
+      <c r="V218"/>
+      <c r="W218"/>
+    </row>
+    <row r="219" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T219"/>
+      <c r="U219"/>
+      <c r="V219"/>
+      <c r="W219"/>
+    </row>
+    <row r="220" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T220"/>
+      <c r="U220"/>
+      <c r="V220"/>
+      <c r="W220"/>
+    </row>
+    <row r="221" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T221"/>
+      <c r="U221"/>
+      <c r="V221"/>
+      <c r="W221"/>
+    </row>
+    <row r="222" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T222"/>
+      <c r="U222"/>
+      <c r="V222"/>
+      <c r="W222"/>
+    </row>
+    <row r="223" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T223"/>
+      <c r="U223"/>
+      <c r="V223"/>
+      <c r="W223"/>
+    </row>
+    <row r="224" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T224"/>
+      <c r="U224"/>
+      <c r="V224"/>
+      <c r="W224"/>
+    </row>
+    <row r="225" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T225"/>
+      <c r="U225"/>
+      <c r="V225"/>
+      <c r="W225"/>
+    </row>
+    <row r="226" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T226"/>
+      <c r="U226"/>
+      <c r="V226"/>
+      <c r="W226"/>
+    </row>
+    <row r="227" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T227"/>
+      <c r="U227"/>
+      <c r="V227"/>
+      <c r="W227"/>
+    </row>
+    <row r="228" spans="20:23" x14ac:dyDescent="0.25">
+      <c r="T228"/>
+      <c r="U228"/>
+      <c r="V228"/>
+      <c r="W228"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
